--- a/CakeLand文档/CakeLand数值计算.xlsx
+++ b/CakeLand文档/CakeLand数值计算.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="数值规划" sheetId="1" r:id="rId1"/>
     <sheet name="视频广告需求" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="地图" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t>钻石</t>
   </si>
@@ -148,6 +148,20 @@
   </si>
   <si>
     <t>cakelandpurchase04</t>
+  </si>
+  <si>
+    <t>center</t>
+  </si>
+  <si>
+    <t>size Y</t>
+  </si>
+  <si>
+    <t>起始关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -225,7 +239,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -247,6 +261,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -283,7 +309,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -346,6 +372,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -713,7 +748,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
@@ -1424,12 +1459,1144 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="24"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="24">
+        <v>20</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="24">
+        <v>12.29</v>
+      </c>
+      <c r="E2" s="24">
+        <v>24.58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="25">
+        <f t="shared" ref="A3:A52" si="0">C3/$A$2</f>
+        <v>1</v>
+      </c>
+      <c r="B3" s="25">
+        <v>1</v>
+      </c>
+      <c r="C3" s="25">
+        <v>20</v>
+      </c>
+      <c r="D3" s="25">
+        <f>(A3-1)*$D$2</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="25">
+        <f>A3*$E$2</f>
+        <v>24.58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="25">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B4" s="25">
+        <f>B3+20</f>
+        <v>21</v>
+      </c>
+      <c r="C4" s="25">
+        <f>C3+20</f>
+        <v>40</v>
+      </c>
+      <c r="D4" s="25">
+        <f t="shared" ref="D4:D52" si="1">(A4-1)*$D$2</f>
+        <v>12.29</v>
+      </c>
+      <c r="E4" s="25">
+        <f t="shared" ref="E4:E52" si="2">A4*$E$2</f>
+        <v>49.16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="25">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B5" s="25">
+        <f t="shared" ref="B5:C20" si="3">B4+20</f>
+        <v>41</v>
+      </c>
+      <c r="C5" s="25">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="D5" s="25">
+        <f t="shared" si="1"/>
+        <v>24.58</v>
+      </c>
+      <c r="E5" s="25">
+        <f t="shared" si="2"/>
+        <v>73.739999999999995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="25">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B6" s="25">
+        <f t="shared" si="3"/>
+        <v>61</v>
+      </c>
+      <c r="C6" s="25">
+        <f t="shared" si="3"/>
+        <v>80</v>
+      </c>
+      <c r="D6" s="25">
+        <f t="shared" si="1"/>
+        <v>36.869999999999997</v>
+      </c>
+      <c r="E6" s="25">
+        <f t="shared" si="2"/>
+        <v>98.32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="25">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B7" s="25">
+        <f t="shared" si="3"/>
+        <v>81</v>
+      </c>
+      <c r="C7" s="25">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="D7" s="25">
+        <f t="shared" si="1"/>
+        <v>49.16</v>
+      </c>
+      <c r="E7" s="25">
+        <f t="shared" si="2"/>
+        <v>122.89999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="25">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B8" s="25">
+        <f t="shared" si="3"/>
+        <v>101</v>
+      </c>
+      <c r="C8" s="25">
+        <f t="shared" si="3"/>
+        <v>120</v>
+      </c>
+      <c r="D8" s="25">
+        <f t="shared" si="1"/>
+        <v>61.449999999999996</v>
+      </c>
+      <c r="E8" s="25">
+        <f t="shared" si="2"/>
+        <v>147.47999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="25">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B9" s="25">
+        <f t="shared" si="3"/>
+        <v>121</v>
+      </c>
+      <c r="C9" s="25">
+        <f t="shared" si="3"/>
+        <v>140</v>
+      </c>
+      <c r="D9" s="25">
+        <f t="shared" si="1"/>
+        <v>73.739999999999995</v>
+      </c>
+      <c r="E9" s="25">
+        <f t="shared" si="2"/>
+        <v>172.06</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="25">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B10" s="25">
+        <f t="shared" si="3"/>
+        <v>141</v>
+      </c>
+      <c r="C10" s="25">
+        <f t="shared" si="3"/>
+        <v>160</v>
+      </c>
+      <c r="D10" s="25">
+        <f t="shared" si="1"/>
+        <v>86.03</v>
+      </c>
+      <c r="E10" s="25">
+        <f t="shared" si="2"/>
+        <v>196.64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="25">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B11" s="25">
+        <f t="shared" si="3"/>
+        <v>161</v>
+      </c>
+      <c r="C11" s="25">
+        <f t="shared" si="3"/>
+        <v>180</v>
+      </c>
+      <c r="D11" s="25">
+        <f t="shared" si="1"/>
+        <v>98.32</v>
+      </c>
+      <c r="E11" s="25">
+        <f t="shared" si="2"/>
+        <v>221.21999999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="25">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B12" s="25">
+        <f t="shared" si="3"/>
+        <v>181</v>
+      </c>
+      <c r="C12" s="25">
+        <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
+      <c r="D12" s="25">
+        <f t="shared" si="1"/>
+        <v>110.60999999999999</v>
+      </c>
+      <c r="E12" s="25">
+        <f t="shared" si="2"/>
+        <v>245.79999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="26">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B13" s="26">
+        <f t="shared" si="3"/>
+        <v>201</v>
+      </c>
+      <c r="C13" s="26">
+        <f t="shared" si="3"/>
+        <v>220</v>
+      </c>
+      <c r="D13" s="26">
+        <f t="shared" si="1"/>
+        <v>122.89999999999999</v>
+      </c>
+      <c r="E13" s="26">
+        <f t="shared" si="2"/>
+        <v>270.38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="26">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B14" s="26">
+        <f t="shared" si="3"/>
+        <v>221</v>
+      </c>
+      <c r="C14" s="26">
+        <f t="shared" si="3"/>
+        <v>240</v>
+      </c>
+      <c r="D14" s="26">
+        <f t="shared" si="1"/>
+        <v>135.19</v>
+      </c>
+      <c r="E14" s="26">
+        <f t="shared" si="2"/>
+        <v>294.95999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="26">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B15" s="26">
+        <f t="shared" si="3"/>
+        <v>241</v>
+      </c>
+      <c r="C15" s="26">
+        <f t="shared" si="3"/>
+        <v>260</v>
+      </c>
+      <c r="D15" s="26">
+        <f t="shared" si="1"/>
+        <v>147.47999999999999</v>
+      </c>
+      <c r="E15" s="26">
+        <f t="shared" si="2"/>
+        <v>319.53999999999996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="26">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B16" s="26">
+        <f t="shared" si="3"/>
+        <v>261</v>
+      </c>
+      <c r="C16" s="26">
+        <f t="shared" si="3"/>
+        <v>280</v>
+      </c>
+      <c r="D16" s="26">
+        <f t="shared" si="1"/>
+        <v>159.76999999999998</v>
+      </c>
+      <c r="E16" s="26">
+        <f t="shared" si="2"/>
+        <v>344.12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="26">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B17" s="26">
+        <f t="shared" si="3"/>
+        <v>281</v>
+      </c>
+      <c r="C17" s="26">
+        <f t="shared" si="3"/>
+        <v>300</v>
+      </c>
+      <c r="D17" s="26">
+        <f t="shared" si="1"/>
+        <v>172.06</v>
+      </c>
+      <c r="E17" s="26">
+        <f t="shared" si="2"/>
+        <v>368.7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="26">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B18" s="26">
+        <f t="shared" si="3"/>
+        <v>301</v>
+      </c>
+      <c r="C18" s="26">
+        <f t="shared" si="3"/>
+        <v>320</v>
+      </c>
+      <c r="D18" s="26">
+        <f t="shared" si="1"/>
+        <v>184.35</v>
+      </c>
+      <c r="E18" s="26">
+        <f t="shared" si="2"/>
+        <v>393.28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="26">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B19" s="26">
+        <f t="shared" si="3"/>
+        <v>321</v>
+      </c>
+      <c r="C19" s="26">
+        <f t="shared" si="3"/>
+        <v>340</v>
+      </c>
+      <c r="D19" s="26">
+        <f t="shared" si="1"/>
+        <v>196.64</v>
+      </c>
+      <c r="E19" s="26">
+        <f t="shared" si="2"/>
+        <v>417.85999999999996</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="26">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B20" s="26">
+        <f t="shared" si="3"/>
+        <v>341</v>
+      </c>
+      <c r="C20" s="26">
+        <f t="shared" si="3"/>
+        <v>360</v>
+      </c>
+      <c r="D20" s="26">
+        <f t="shared" si="1"/>
+        <v>208.92999999999998</v>
+      </c>
+      <c r="E20" s="26">
+        <f t="shared" si="2"/>
+        <v>442.43999999999994</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="26">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B21" s="26">
+        <f t="shared" ref="B21:C36" si="4">B20+20</f>
+        <v>361</v>
+      </c>
+      <c r="C21" s="26">
+        <f t="shared" si="4"/>
+        <v>380</v>
+      </c>
+      <c r="D21" s="26">
+        <f t="shared" si="1"/>
+        <v>221.21999999999997</v>
+      </c>
+      <c r="E21" s="26">
+        <f t="shared" si="2"/>
+        <v>467.02</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="26">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B22" s="26">
+        <f t="shared" si="4"/>
+        <v>381</v>
+      </c>
+      <c r="C22" s="26">
+        <f t="shared" si="4"/>
+        <v>400</v>
+      </c>
+      <c r="D22" s="26">
+        <f t="shared" si="1"/>
+        <v>233.51</v>
+      </c>
+      <c r="E22" s="26">
+        <f t="shared" si="2"/>
+        <v>491.59999999999997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="26">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B23" s="26">
+        <f t="shared" si="4"/>
+        <v>401</v>
+      </c>
+      <c r="C23" s="26">
+        <f t="shared" si="4"/>
+        <v>420</v>
+      </c>
+      <c r="D23" s="26">
+        <f t="shared" si="1"/>
+        <v>245.79999999999998</v>
+      </c>
+      <c r="E23" s="26">
+        <f t="shared" si="2"/>
+        <v>516.17999999999995</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="26">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B24" s="26">
+        <f t="shared" si="4"/>
+        <v>421</v>
+      </c>
+      <c r="C24" s="26">
+        <f t="shared" si="4"/>
+        <v>440</v>
+      </c>
+      <c r="D24" s="26">
+        <f t="shared" si="1"/>
+        <v>258.08999999999997</v>
+      </c>
+      <c r="E24" s="26">
+        <f t="shared" si="2"/>
+        <v>540.76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="26">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B25" s="26">
+        <f t="shared" si="4"/>
+        <v>441</v>
+      </c>
+      <c r="C25" s="26">
+        <f t="shared" si="4"/>
+        <v>460</v>
+      </c>
+      <c r="D25" s="26">
+        <f t="shared" si="1"/>
+        <v>270.38</v>
+      </c>
+      <c r="E25" s="26">
+        <f t="shared" si="2"/>
+        <v>565.33999999999992</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="26">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B26" s="26">
+        <f t="shared" si="4"/>
+        <v>461</v>
+      </c>
+      <c r="C26" s="26">
+        <f t="shared" si="4"/>
+        <v>480</v>
+      </c>
+      <c r="D26" s="26">
+        <f t="shared" si="1"/>
+        <v>282.66999999999996</v>
+      </c>
+      <c r="E26" s="26">
+        <f t="shared" si="2"/>
+        <v>589.91999999999996</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="26">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B27" s="26">
+        <f t="shared" si="4"/>
+        <v>481</v>
+      </c>
+      <c r="C27" s="26">
+        <f t="shared" si="4"/>
+        <v>500</v>
+      </c>
+      <c r="D27" s="26">
+        <f t="shared" si="1"/>
+        <v>294.95999999999998</v>
+      </c>
+      <c r="E27" s="26">
+        <f t="shared" si="2"/>
+        <v>614.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="26">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B28" s="26">
+        <f t="shared" si="4"/>
+        <v>501</v>
+      </c>
+      <c r="C28" s="26">
+        <f t="shared" si="4"/>
+        <v>520</v>
+      </c>
+      <c r="D28" s="26">
+        <f t="shared" si="1"/>
+        <v>307.25</v>
+      </c>
+      <c r="E28" s="26">
+        <f t="shared" si="2"/>
+        <v>639.07999999999993</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="26">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B29" s="26">
+        <f t="shared" si="4"/>
+        <v>521</v>
+      </c>
+      <c r="C29" s="26">
+        <f t="shared" si="4"/>
+        <v>540</v>
+      </c>
+      <c r="D29" s="26">
+        <f t="shared" si="1"/>
+        <v>319.53999999999996</v>
+      </c>
+      <c r="E29" s="26">
+        <f t="shared" si="2"/>
+        <v>663.66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="26">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B30" s="26">
+        <f t="shared" si="4"/>
+        <v>541</v>
+      </c>
+      <c r="C30" s="26">
+        <f t="shared" si="4"/>
+        <v>560</v>
+      </c>
+      <c r="D30" s="26">
+        <f t="shared" si="1"/>
+        <v>331.83</v>
+      </c>
+      <c r="E30" s="26">
+        <f t="shared" si="2"/>
+        <v>688.24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="26">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B31" s="26">
+        <f t="shared" si="4"/>
+        <v>561</v>
+      </c>
+      <c r="C31" s="26">
+        <f t="shared" si="4"/>
+        <v>580</v>
+      </c>
+      <c r="D31" s="26">
+        <f t="shared" si="1"/>
+        <v>344.12</v>
+      </c>
+      <c r="E31" s="26">
+        <f t="shared" si="2"/>
+        <v>712.81999999999994</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="26">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B32" s="26">
+        <f t="shared" si="4"/>
+        <v>581</v>
+      </c>
+      <c r="C32" s="26">
+        <f t="shared" si="4"/>
+        <v>600</v>
+      </c>
+      <c r="D32" s="26">
+        <f t="shared" si="1"/>
+        <v>356.40999999999997</v>
+      </c>
+      <c r="E32" s="26">
+        <f t="shared" si="2"/>
+        <v>737.4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="26">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B33" s="26">
+        <f t="shared" si="4"/>
+        <v>601</v>
+      </c>
+      <c r="C33" s="26">
+        <f t="shared" si="4"/>
+        <v>620</v>
+      </c>
+      <c r="D33" s="26">
+        <f t="shared" si="1"/>
+        <v>368.7</v>
+      </c>
+      <c r="E33" s="26">
+        <f t="shared" si="2"/>
+        <v>761.9799999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="26">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B34" s="26">
+        <f t="shared" si="4"/>
+        <v>621</v>
+      </c>
+      <c r="C34" s="26">
+        <f t="shared" si="4"/>
+        <v>640</v>
+      </c>
+      <c r="D34" s="26">
+        <f t="shared" si="1"/>
+        <v>380.98999999999995</v>
+      </c>
+      <c r="E34" s="26">
+        <f t="shared" si="2"/>
+        <v>786.56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="26">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B35" s="26">
+        <f t="shared" si="4"/>
+        <v>641</v>
+      </c>
+      <c r="C35" s="26">
+        <f t="shared" si="4"/>
+        <v>660</v>
+      </c>
+      <c r="D35" s="26">
+        <f t="shared" si="1"/>
+        <v>393.28</v>
+      </c>
+      <c r="E35" s="26">
+        <f t="shared" si="2"/>
+        <v>811.14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="26">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B36" s="26">
+        <f t="shared" si="4"/>
+        <v>661</v>
+      </c>
+      <c r="C36" s="26">
+        <f t="shared" si="4"/>
+        <v>680</v>
+      </c>
+      <c r="D36" s="26">
+        <f t="shared" si="1"/>
+        <v>405.57</v>
+      </c>
+      <c r="E36" s="26">
+        <f t="shared" si="2"/>
+        <v>835.71999999999991</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="26">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B37" s="26">
+        <f t="shared" ref="B37:C52" si="5">B36+20</f>
+        <v>681</v>
+      </c>
+      <c r="C37" s="26">
+        <f t="shared" si="5"/>
+        <v>700</v>
+      </c>
+      <c r="D37" s="26">
+        <f t="shared" si="1"/>
+        <v>417.85999999999996</v>
+      </c>
+      <c r="E37" s="26">
+        <f t="shared" si="2"/>
+        <v>860.3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="26">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B38" s="26">
+        <f t="shared" si="5"/>
+        <v>701</v>
+      </c>
+      <c r="C38" s="26">
+        <f t="shared" si="5"/>
+        <v>720</v>
+      </c>
+      <c r="D38" s="26">
+        <f t="shared" si="1"/>
+        <v>430.15</v>
+      </c>
+      <c r="E38" s="26">
+        <f t="shared" si="2"/>
+        <v>884.87999999999988</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="26">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B39" s="26">
+        <f t="shared" si="5"/>
+        <v>721</v>
+      </c>
+      <c r="C39" s="26">
+        <f t="shared" si="5"/>
+        <v>740</v>
+      </c>
+      <c r="D39" s="26">
+        <f t="shared" si="1"/>
+        <v>442.43999999999994</v>
+      </c>
+      <c r="E39" s="26">
+        <f t="shared" si="2"/>
+        <v>909.45999999999992</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="26">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B40" s="26">
+        <f t="shared" si="5"/>
+        <v>741</v>
+      </c>
+      <c r="C40" s="26">
+        <f t="shared" si="5"/>
+        <v>760</v>
+      </c>
+      <c r="D40" s="26">
+        <f t="shared" si="1"/>
+        <v>454.72999999999996</v>
+      </c>
+      <c r="E40" s="26">
+        <f t="shared" si="2"/>
+        <v>934.04</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="26">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B41" s="26">
+        <f t="shared" si="5"/>
+        <v>761</v>
+      </c>
+      <c r="C41" s="26">
+        <f t="shared" si="5"/>
+        <v>780</v>
+      </c>
+      <c r="D41" s="26">
+        <f t="shared" si="1"/>
+        <v>467.02</v>
+      </c>
+      <c r="E41" s="26">
+        <f t="shared" si="2"/>
+        <v>958.61999999999989</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="26">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B42" s="26">
+        <f t="shared" si="5"/>
+        <v>781</v>
+      </c>
+      <c r="C42" s="26">
+        <f t="shared" si="5"/>
+        <v>800</v>
+      </c>
+      <c r="D42" s="26">
+        <f t="shared" si="1"/>
+        <v>479.30999999999995</v>
+      </c>
+      <c r="E42" s="26">
+        <f t="shared" si="2"/>
+        <v>983.19999999999993</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="26">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="B43" s="26">
+        <f t="shared" si="5"/>
+        <v>801</v>
+      </c>
+      <c r="C43" s="26">
+        <f t="shared" si="5"/>
+        <v>820</v>
+      </c>
+      <c r="D43" s="26">
+        <f t="shared" si="1"/>
+        <v>491.59999999999997</v>
+      </c>
+      <c r="E43" s="26">
+        <f t="shared" si="2"/>
+        <v>1007.78</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="26">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="B44" s="26">
+        <f t="shared" si="5"/>
+        <v>821</v>
+      </c>
+      <c r="C44" s="26">
+        <f t="shared" si="5"/>
+        <v>840</v>
+      </c>
+      <c r="D44" s="26">
+        <f t="shared" si="1"/>
+        <v>503.89</v>
+      </c>
+      <c r="E44" s="26">
+        <f t="shared" si="2"/>
+        <v>1032.3599999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="26">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="B45" s="26">
+        <f t="shared" si="5"/>
+        <v>841</v>
+      </c>
+      <c r="C45" s="26">
+        <f t="shared" si="5"/>
+        <v>860</v>
+      </c>
+      <c r="D45" s="26">
+        <f t="shared" si="1"/>
+        <v>516.17999999999995</v>
+      </c>
+      <c r="E45" s="26">
+        <f t="shared" si="2"/>
+        <v>1056.9399999999998</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="26">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="B46" s="26">
+        <f t="shared" si="5"/>
+        <v>861</v>
+      </c>
+      <c r="C46" s="26">
+        <f t="shared" si="5"/>
+        <v>880</v>
+      </c>
+      <c r="D46" s="26">
+        <f t="shared" si="1"/>
+        <v>528.46999999999991</v>
+      </c>
+      <c r="E46" s="26">
+        <f t="shared" si="2"/>
+        <v>1081.52</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="26">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="B47" s="26">
+        <f t="shared" si="5"/>
+        <v>881</v>
+      </c>
+      <c r="C47" s="26">
+        <f t="shared" si="5"/>
+        <v>900</v>
+      </c>
+      <c r="D47" s="26">
+        <f t="shared" si="1"/>
+        <v>540.76</v>
+      </c>
+      <c r="E47" s="26">
+        <f t="shared" si="2"/>
+        <v>1106.0999999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="26">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="B48" s="26">
+        <f t="shared" si="5"/>
+        <v>901</v>
+      </c>
+      <c r="C48" s="26">
+        <f t="shared" si="5"/>
+        <v>920</v>
+      </c>
+      <c r="D48" s="26">
+        <f t="shared" si="1"/>
+        <v>553.04999999999995</v>
+      </c>
+      <c r="E48" s="26">
+        <f t="shared" si="2"/>
+        <v>1130.6799999999998</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="26">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="B49" s="26">
+        <f t="shared" si="5"/>
+        <v>921</v>
+      </c>
+      <c r="C49" s="26">
+        <f t="shared" si="5"/>
+        <v>940</v>
+      </c>
+      <c r="D49" s="26">
+        <f t="shared" si="1"/>
+        <v>565.33999999999992</v>
+      </c>
+      <c r="E49" s="26">
+        <f t="shared" si="2"/>
+        <v>1155.26</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="26">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="B50" s="26">
+        <f t="shared" si="5"/>
+        <v>941</v>
+      </c>
+      <c r="C50" s="26">
+        <f t="shared" si="5"/>
+        <v>960</v>
+      </c>
+      <c r="D50" s="26">
+        <f t="shared" si="1"/>
+        <v>577.63</v>
+      </c>
+      <c r="E50" s="26">
+        <f t="shared" si="2"/>
+        <v>1179.8399999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="26">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="B51" s="26">
+        <f t="shared" si="5"/>
+        <v>961</v>
+      </c>
+      <c r="C51" s="26">
+        <f t="shared" si="5"/>
+        <v>980</v>
+      </c>
+      <c r="D51" s="26">
+        <f t="shared" si="1"/>
+        <v>589.91999999999996</v>
+      </c>
+      <c r="E51" s="26">
+        <f t="shared" si="2"/>
+        <v>1204.4199999999998</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="26">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="B52" s="26">
+        <f t="shared" si="5"/>
+        <v>981</v>
+      </c>
+      <c r="C52" s="26">
+        <f t="shared" si="5"/>
+        <v>1000</v>
+      </c>
+      <c r="D52" s="26">
+        <f t="shared" si="1"/>
+        <v>602.20999999999992</v>
+      </c>
+      <c r="E52" s="26">
+        <f t="shared" si="2"/>
+        <v>1229</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>

--- a/CakeLand文档/CakeLand数值计算.xlsx
+++ b/CakeLand文档/CakeLand数值计算.xlsx
@@ -1462,7 +1462,7 @@
   <dimension ref="A1:E52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1673,45 +1673,45 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="25">
+      <c r="A11" s="26">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B11" s="25">
+      <c r="B11" s="26">
         <f t="shared" si="3"/>
         <v>161</v>
       </c>
-      <c r="C11" s="25">
+      <c r="C11" s="26">
         <f t="shared" si="3"/>
         <v>180</v>
       </c>
-      <c r="D11" s="25">
+      <c r="D11" s="26">
         <f t="shared" si="1"/>
         <v>98.32</v>
       </c>
-      <c r="E11" s="25">
+      <c r="E11" s="26">
         <f t="shared" si="2"/>
         <v>221.21999999999997</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="25">
+      <c r="A12" s="26">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B12" s="25">
+      <c r="B12" s="26">
         <f t="shared" si="3"/>
         <v>181</v>
       </c>
-      <c r="C12" s="25">
+      <c r="C12" s="26">
         <f t="shared" si="3"/>
         <v>200</v>
       </c>
-      <c r="D12" s="25">
+      <c r="D12" s="26">
         <f t="shared" si="1"/>
         <v>110.60999999999999</v>
       </c>
-      <c r="E12" s="25">
+      <c r="E12" s="26">
         <f t="shared" si="2"/>
         <v>245.79999999999998</v>
       </c>

--- a/CakeLand文档/CakeLand数值计算.xlsx
+++ b/CakeLand文档/CakeLand数值计算.xlsx
@@ -1462,7 +1462,7 @@
   <dimension ref="A1:E52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1673,23 +1673,23 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="26">
+      <c r="A11" s="25">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B11" s="26">
+      <c r="B11" s="25">
         <f t="shared" si="3"/>
         <v>161</v>
       </c>
-      <c r="C11" s="26">
+      <c r="C11" s="25">
         <f t="shared" si="3"/>
         <v>180</v>
       </c>
-      <c r="D11" s="26">
+      <c r="D11" s="25">
         <f t="shared" si="1"/>
         <v>98.32</v>
       </c>
-      <c r="E11" s="26">
+      <c r="E11" s="25">
         <f t="shared" si="2"/>
         <v>221.21999999999997</v>
       </c>

--- a/CakeLand文档/CakeLand数值计算.xlsx
+++ b/CakeLand文档/CakeLand数值计算.xlsx
@@ -1462,7 +1462,7 @@
   <dimension ref="A1:E52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="A12" sqref="A12:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1695,45 +1695,45 @@
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="26">
+      <c r="A12" s="25">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B12" s="26">
+      <c r="B12" s="25">
         <f t="shared" si="3"/>
         <v>181</v>
       </c>
-      <c r="C12" s="26">
+      <c r="C12" s="25">
         <f t="shared" si="3"/>
         <v>200</v>
       </c>
-      <c r="D12" s="26">
+      <c r="D12" s="25">
         <f t="shared" si="1"/>
         <v>110.60999999999999</v>
       </c>
-      <c r="E12" s="26">
+      <c r="E12" s="25">
         <f t="shared" si="2"/>
         <v>245.79999999999998</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="26">
+      <c r="A13" s="25">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B13" s="26">
+      <c r="B13" s="25">
         <f t="shared" si="3"/>
         <v>201</v>
       </c>
-      <c r="C13" s="26">
+      <c r="C13" s="25">
         <f t="shared" si="3"/>
         <v>220</v>
       </c>
-      <c r="D13" s="26">
+      <c r="D13" s="25">
         <f t="shared" si="1"/>
         <v>122.89999999999999</v>
       </c>
-      <c r="E13" s="26">
+      <c r="E13" s="25">
         <f t="shared" si="2"/>
         <v>270.38</v>
       </c>

--- a/CakeLand文档/CakeLand数值计算.xlsx
+++ b/CakeLand文档/CakeLand数值计算.xlsx
@@ -1462,7 +1462,7 @@
   <dimension ref="A1:E52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD13"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1739,23 +1739,23 @@
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="26">
+      <c r="A14" s="25">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B14" s="26">
+      <c r="B14" s="25">
         <f t="shared" si="3"/>
         <v>221</v>
       </c>
-      <c r="C14" s="26">
+      <c r="C14" s="25">
         <f t="shared" si="3"/>
         <v>240</v>
       </c>
-      <c r="D14" s="26">
+      <c r="D14" s="25">
         <f t="shared" si="1"/>
         <v>135.19</v>
       </c>
-      <c r="E14" s="26">
+      <c r="E14" s="25">
         <f t="shared" si="2"/>
         <v>294.95999999999998</v>
       </c>
